--- a/Counters.xlsx
+++ b/Counters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunom\Desktop\AA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE26B3-5036-4C6F-ACEB-DBDADC9F0176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CC73C2-B543-4F30-8D57-3548D815B3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B2F1F33-B3EB-482B-BA04-B2335AD1FCFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8B2F1F33-B3EB-482B-BA04-B2335AD1FCFA}"/>
   </bookViews>
   <sheets>
     <sheet name="CsurosCounter" sheetId="20" r:id="rId1"/>
@@ -22,8 +22,8 @@
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="3" hidden="1">ExactCount!$D$4:$F$34</definedName>
     <definedName name="DadosExternos_10" localSheetId="2" hidden="1">SpaceSavingCount!$D$20:$F$31</definedName>
-    <definedName name="DadosExternos_11" localSheetId="2" hidden="1">SpaceSavingCount!$I$20:$K$31</definedName>
-    <definedName name="DadosExternos_12" localSheetId="2" hidden="1">SpaceSavingCount!$N$20:$P$31</definedName>
+    <definedName name="DadosExternos_11" localSheetId="2" hidden="1">SpaceSavingCount!$J$20:$L$31</definedName>
+    <definedName name="DadosExternos_12" localSheetId="2" hidden="1">SpaceSavingCount!$P$20:$R$31</definedName>
     <definedName name="DadosExternos_13" localSheetId="1" hidden="1">CsurosCounter_d_14!$D$4:$F$35</definedName>
     <definedName name="DadosExternos_14" localSheetId="1" hidden="1">CsurosCounter_d_14!$I$4:$K$45</definedName>
     <definedName name="DadosExternos_16" localSheetId="1" hidden="1">CsurosCounter_d_14!$N$4:$P$38</definedName>
@@ -44,11 +44,11 @@
     <definedName name="DadosExternos_3" localSheetId="3" hidden="1">ExactCount!$N$4:$P$37</definedName>
     <definedName name="DadosExternos_30" localSheetId="0" hidden="1">CsurosCounter!$U$73:$W$105</definedName>
     <definedName name="DadosExternos_4" localSheetId="2" hidden="1">SpaceSavingCount!$D$4:$F$8</definedName>
-    <definedName name="DadosExternos_5" localSheetId="2" hidden="1">SpaceSavingCount!$I$4:$K$8</definedName>
-    <definedName name="DadosExternos_6" localSheetId="2" hidden="1">SpaceSavingCount!$N$4:$P$8</definedName>
+    <definedName name="DadosExternos_5" localSheetId="2" hidden="1">SpaceSavingCount!$J$4:$L$8</definedName>
+    <definedName name="DadosExternos_6" localSheetId="2" hidden="1">SpaceSavingCount!$P$4:$R$8</definedName>
     <definedName name="DadosExternos_7" localSheetId="2" hidden="1">SpaceSavingCount!$D$11:$F$17</definedName>
-    <definedName name="DadosExternos_8" localSheetId="2" hidden="1">SpaceSavingCount!$I$11:$K$17</definedName>
-    <definedName name="DadosExternos_9" localSheetId="2" hidden="1">SpaceSavingCount!$N$11:$P$17</definedName>
+    <definedName name="DadosExternos_8" localSheetId="2" hidden="1">SpaceSavingCount!$J$11:$L$17</definedName>
+    <definedName name="DadosExternos_9" localSheetId="2" hidden="1">SpaceSavingCount!$P$11:$R$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1008">
   <si>
     <t>char</t>
   </si>
@@ -3217,6 +3217,12 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
   </si>
 </sst>
 </file>
@@ -3288,18 +3294,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="118">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3684,7 +3707,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Erro relativo</a:t>
+              <a:t>CSURÖS Counter - Erro relativo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4146,7 +4169,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Erro absoluto</a:t>
+              <a:t>CSURÖS Counter - Erro absoluto</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5887,11 +5910,13 @@
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_4" connectionId="31" xr16:uid="{F682ACD6-8444-44FD-B52A-7A5DFC05B919}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5937,11 +5962,13 @@
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_7" connectionId="32" xr16:uid="{542A185B-678C-4635-86AC-E6B8C7EB6B50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5973,11 +6000,13 @@
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_10" connectionId="29" xr16:uid="{005CE4E5-8850-4C42-A9A9-BDB2FC464BBE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -6145,11 +6174,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{7439496D-23DF-4E5B-9D8B-475FE8A98779}" name="CsurosCounter_en_1" displayName="CsurosCounter_en_1" ref="C3:G35" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C3:G35" xr:uid="{7439496D-23DF-4E5B-9D8B-475FE8A98779}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D8C8A355-D089-419B-9632-0D1566FD934F}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{71DDC451-4AF4-47A7-B908-0D096A99853D}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{7B7A5D04-5A77-4E9E-BD50-863525CA784B}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{5A9161FC-1680-4836-A553-47351C07C6DF}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{5D96D35B-4B75-47D3-B544-545E562A4F1E}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{D8C8A355-D089-419B-9632-0D1566FD934F}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{71DDC451-4AF4-47A7-B908-0D096A99853D}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{7B7A5D04-5A77-4E9E-BD50-863525CA784B}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{5A9161FC-1680-4836-A553-47351C07C6DF}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{5D96D35B-4B75-47D3-B544-545E562A4F1E}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6159,11 +6188,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{CD9745B8-FF22-4066-B36B-17BB99D91885}" name="CsurosCounter_en_10" displayName="CsurosCounter_en_10" ref="AA38:AE70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AA38:AE70" xr:uid="{CD9745B8-FF22-4066-B36B-17BB99D91885}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2CAF4FBC-401E-4B5D-A2FF-BEFDDF36E41A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{5643265D-D9FE-4569-AE32-5A42766E31E8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{05A87CA4-3AB3-456C-988F-9F8EA0C3C179}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{38CE07EC-A8B3-44EB-9DBD-EBD436C9A173}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{DAA7E0A6-75CF-4E68-AA07-8E6A48EBE9AE}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{2CAF4FBC-401E-4B5D-A2FF-BEFDDF36E41A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{5643265D-D9FE-4569-AE32-5A42766E31E8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{05A87CA4-3AB3-456C-988F-9F8EA0C3C179}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{38CE07EC-A8B3-44EB-9DBD-EBD436C9A173}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{DAA7E0A6-75CF-4E68-AA07-8E6A48EBE9AE}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6173,11 +6202,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{201B41B0-B74F-42FF-87A8-5E68AB51D76B}" name="CsurosCounter_en_11" displayName="CsurosCounter_en_11" ref="C73:G105" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C73:G105" xr:uid="{201B41B0-B74F-42FF-87A8-5E68AB51D76B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7EF487F2-0E2A-46BB-923B-B91B4DE6A4BC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{68DD5E3D-1C97-4741-B5AC-E6C18B8B3512}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{F86490B8-644D-4C87-A1D2-1A8930FB56D2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{E5D14727-4B0D-4ACF-BF82-C495EF4E659E}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{A0A6D378-0741-4A06-8ADB-FCBFB369C8CB}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{7EF487F2-0E2A-46BB-923B-B91B4DE6A4BC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{68DD5E3D-1C97-4741-B5AC-E6C18B8B3512}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{F86490B8-644D-4C87-A1D2-1A8930FB56D2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{E5D14727-4B0D-4ACF-BF82-C495EF4E659E}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{A0A6D378-0741-4A06-8ADB-FCBFB369C8CB}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6187,11 +6216,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B73B780F-FC8C-4AE4-BE6F-17777C702BAB}" name="CsurosCounter_en_12" displayName="CsurosCounter_en_12" ref="I73:M105" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I73:M105" xr:uid="{B73B780F-FC8C-4AE4-BE6F-17777C702BAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E1C145E-563F-42A5-99F0-CCBAC2678A40}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{6CE69121-C007-4BEB-89B0-03F8F9155345}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{CD68015F-2348-4E77-93B5-C1DE57FCEBB5}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{8EB512DE-EE34-4860-988A-DDE09D789ADD}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{8217A4EC-A863-464E-AD77-C21F0C3577B3}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{8E1C145E-563F-42A5-99F0-CCBAC2678A40}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{6CE69121-C007-4BEB-89B0-03F8F9155345}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{CD68015F-2348-4E77-93B5-C1DE57FCEBB5}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{8EB512DE-EE34-4860-988A-DDE09D789ADD}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{8217A4EC-A863-464E-AD77-C21F0C3577B3}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6201,11 +6230,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{067F380C-8F3B-4339-8A5E-388EFE8C5680}" name="CsurosCounter_en_13" displayName="CsurosCounter_en_13" ref="O73:S105" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="O73:S105" xr:uid="{067F380C-8F3B-4339-8A5E-388EFE8C5680}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1870AD17-3B8F-44B9-B6E6-12D36F1C82A5}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{974A7D31-A074-40CD-9763-162312470AB2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{E43DFDFF-1BF8-4CB0-811A-AEC7FEFF1304}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{CCB284B1-6B31-4D7C-877E-70F8C1DEB53D}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{FAB8EE12-3E59-4244-AC96-719E83558849}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{1870AD17-3B8F-44B9-B6E6-12D36F1C82A5}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{974A7D31-A074-40CD-9763-162312470AB2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{E43DFDFF-1BF8-4CB0-811A-AEC7FEFF1304}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{CCB284B1-6B31-4D7C-877E-70F8C1DEB53D}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{FAB8EE12-3E59-4244-AC96-719E83558849}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6215,11 +6244,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B955460E-DCDB-49C3-B17F-5BEC2502C1A8}" name="CsurosCounter_en_14__2" displayName="CsurosCounter_en_14__2" ref="U73:Y105" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="U73:Y105" xr:uid="{B955460E-DCDB-49C3-B17F-5BEC2502C1A8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1F01F3CF-EC54-4294-A7CA-A72079B5A398}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{19BA4205-E38D-420D-8D95-98EEC6ADC72B}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{0C0C28F1-6FFE-4C94-B5C1-9BCD002DAD4E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{A3520B8F-D8B3-439C-AC5F-7F04A72BCE96}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{A03C17C7-AD22-47C7-8068-ED48BD7F0F66}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{1F01F3CF-EC54-4294-A7CA-A72079B5A398}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{19BA4205-E38D-420D-8D95-98EEC6ADC72B}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{0C0C28F1-6FFE-4C94-B5C1-9BCD002DAD4E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{A3520B8F-D8B3-439C-AC5F-7F04A72BCE96}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{A03C17C7-AD22-47C7-8068-ED48BD7F0F66}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6229,9 +6258,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DB0E5D6B-93AB-4356-AA36-C03A954E6518}" name="CsurosCounter_en_14" displayName="CsurosCounter_en_14" ref="D4:F35" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="D4:F35" xr:uid="{DB0E5D6B-93AB-4356-AA36-C03A954E6518}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{194051FF-1253-4169-A6E9-812CF2C400B1}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{25200002-290A-45F9-96F8-9EF3B60449B5}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{AB2557FA-2BAC-46E4-9A15-A640A427DAEA}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{194051FF-1253-4169-A6E9-812CF2C400B1}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{25200002-290A-45F9-96F8-9EF3B60449B5}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{AB2557FA-2BAC-46E4-9A15-A640A427DAEA}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6241,9 +6270,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3870335C-A535-47A5-ACE1-3BB97E27FFBA}" name="CsurosCounter_fr_14" displayName="CsurosCounter_fr_14" ref="I4:K45" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I4:K45" xr:uid="{3870335C-A535-47A5-ACE1-3BB97E27FFBA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6AB06F5F-5842-40A4-8AFB-67711D13CA74}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{37DAC393-76C1-4653-8547-94B4EC81B1C5}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{B1403EFF-71B2-441C-BC4C-C18114CA480E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{6AB06F5F-5842-40A4-8AFB-67711D13CA74}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{37DAC393-76C1-4653-8547-94B4EC81B1C5}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{B1403EFF-71B2-441C-BC4C-C18114CA480E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6253,33 +6282,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{56F0D910-6829-4C4C-B59C-F011CBC40B18}" name="CsurosCounter_gr_1424" displayName="CsurosCounter_gr_1424" ref="N4:P38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="N4:P38" xr:uid="{56F0D910-6829-4C4C-B59C-F011CBC40B18}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FDA69C57-D62C-49E2-A2BA-3AB913DD270A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{53000B24-518F-4BE2-8260-9A59B843C33A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{3F180A12-4A84-4DFE-9432-C9E645B9D180}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{FDA69C57-D62C-49E2-A2BA-3AB913DD270A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{53000B24-518F-4BE2-8260-9A59B843C33A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3F180A12-4A84-4DFE-9432-C9E645B9D180}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D0D1E164-27FE-46F4-9DE3-03BBC3BA1B65}" name="SpaceSavingCount_en_3__2" displayName="SpaceSavingCount_en_3__2" ref="D4:F8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D4:F8" xr:uid="{D0D1E164-27FE-46F4-9DE3-03BBC3BA1B65}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{97E6AD13-3FF1-4CA2-885A-8387DEF86E2E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{EFDC900F-05B6-4380-9E68-C2CF8840825A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CDC88891-C453-4982-B007-820B29CCBC31}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D0D1E164-27FE-46F4-9DE3-03BBC3BA1B65}" name="SpaceSavingCount_en_3__2" displayName="SpaceSavingCount_en_3__2" ref="D4:H8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D4:H8" xr:uid="{D0D1E164-27FE-46F4-9DE3-03BBC3BA1B65}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{97E6AD13-3FF1-4CA2-885A-8387DEF86E2E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{EFDC900F-05B6-4380-9E68-C2CF8840825A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{CDC88891-C453-4982-B007-820B29CCBC31}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{D4584448-9074-46DA-953B-BD55E8A5CB1F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{F815F133-6BA1-44AD-A202-DF9DD7B6E8BC}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0F42224C-7A0A-41E2-BDFD-D7C6C19A062B}" name="SpaceSavingCount_fr_3__2" displayName="SpaceSavingCount_fr_3__2" ref="I4:K8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="I4:K8" xr:uid="{0F42224C-7A0A-41E2-BDFD-D7C6C19A062B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0F42224C-7A0A-41E2-BDFD-D7C6C19A062B}" name="SpaceSavingCount_fr_3__2" displayName="SpaceSavingCount_fr_3__2" ref="J4:L8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="J4:L8" xr:uid="{0F42224C-7A0A-41E2-BDFD-D7C6C19A062B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FF1F41E7-3786-4667-B248-E64A754D83CA}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{2EBAF80F-F123-459E-B5F5-4634C6239450}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{CCEB2288-E456-44C8-9329-F431AAD32A35}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{FF1F41E7-3786-4667-B248-E64A754D83CA}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{2EBAF80F-F123-459E-B5F5-4634C6239450}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{CCEB2288-E456-44C8-9329-F431AAD32A35}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6289,79 +6320,83 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{90DF7396-945B-4755-9A4C-527612B4799F}" name="CsurosCounter_en_230" displayName="CsurosCounter_en_230" ref="I3:M35" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I3:M35" xr:uid="{90DF7396-945B-4755-9A4C-527612B4799F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3DAAA300-BE1C-4E5D-8067-793C4D430F3B}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{B1578F59-5D91-48A0-AF48-C41FDDF5D8E3}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{F489571A-3570-48BD-A59C-529542E1ED09}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{F892A977-BAF5-4A3D-8568-0EDAB2D2D735}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{6D8393F3-16C1-402E-AF97-7D542A44D04B}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{3DAAA300-BE1C-4E5D-8067-793C4D430F3B}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{B1578F59-5D91-48A0-AF48-C41FDDF5D8E3}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{F489571A-3570-48BD-A59C-529542E1ED09}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{F892A977-BAF5-4A3D-8568-0EDAB2D2D735}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{6D8393F3-16C1-402E-AF97-7D542A44D04B}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD29F142-F509-4F09-88D8-357BB9413BE9}" name="SpaceSavingCount_gr_3__213" displayName="SpaceSavingCount_gr_3__213" ref="N4:P8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="N4:P8" xr:uid="{FD29F142-F509-4F09-88D8-357BB9413BE9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD29F142-F509-4F09-88D8-357BB9413BE9}" name="SpaceSavingCount_gr_3__213" displayName="SpaceSavingCount_gr_3__213" ref="P4:R8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="P4:R8" xr:uid="{FD29F142-F509-4F09-88D8-357BB9413BE9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{48B24EB4-C93D-4844-A9A7-F025B3B8ADFC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{92836E98-1BA5-4B3B-A5B8-2410725A2B5C}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{C0C00594-3B95-4D90-B1BA-4E99444BE5A2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{48B24EB4-C93D-4844-A9A7-F025B3B8ADFC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{92836E98-1BA5-4B3B-A5B8-2410725A2B5C}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{C0C00594-3B95-4D90-B1BA-4E99444BE5A2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BD21E563-2336-4E35-8A43-F22670FE9573}" name="SpaceSavingCount_en_5" displayName="SpaceSavingCount_en_5" ref="D11:F17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D11:F17" xr:uid="{BD21E563-2336-4E35-8A43-F22670FE9573}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{321CE564-4DEC-46D5-8FB4-35DB7FC00378}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{E6A02F6F-3CAA-4635-B69C-AD33B916B32D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{920A97E2-0EFE-4D05-9AAC-8DE71B81A057}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BD21E563-2336-4E35-8A43-F22670FE9573}" name="SpaceSavingCount_en_5" displayName="SpaceSavingCount_en_5" ref="D11:H17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D11:H17" xr:uid="{BD21E563-2336-4E35-8A43-F22670FE9573}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{321CE564-4DEC-46D5-8FB4-35DB7FC00378}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{E6A02F6F-3CAA-4635-B69C-AD33B916B32D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{920A97E2-0EFE-4D05-9AAC-8DE71B81A057}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7739EC3D-FB02-4A17-9C53-EADBF2382307}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{AC3FB9D2-2E03-4382-9361-5084E4382DDA}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B21AB492-5FA8-41FF-9F86-E97976C0E458}" name="SpaceSavingCount_fr_5" displayName="SpaceSavingCount_fr_5" ref="I11:K17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="I11:K17" xr:uid="{B21AB492-5FA8-41FF-9F86-E97976C0E458}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B21AB492-5FA8-41FF-9F86-E97976C0E458}" name="SpaceSavingCount_fr_5" displayName="SpaceSavingCount_fr_5" ref="J11:L17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="J11:L17" xr:uid="{B21AB492-5FA8-41FF-9F86-E97976C0E458}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8A3E4211-F4E9-4FF3-8163-01469E76F948}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{ED87B0F1-5AB6-4B95-8A70-66C3443F2EAE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{6DF934A8-CEC8-4188-B280-31F41039FC62}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8A3E4211-F4E9-4FF3-8163-01469E76F948}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{ED87B0F1-5AB6-4B95-8A70-66C3443F2EAE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6DF934A8-CEC8-4188-B280-31F41039FC62}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D488B3BC-68DC-4D3A-BEE8-0180C846B553}" name="SpaceSavingCount_gr_5" displayName="SpaceSavingCount_gr_5" ref="N11:P17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="N11:P17" xr:uid="{D488B3BC-68DC-4D3A-BEE8-0180C846B553}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D488B3BC-68DC-4D3A-BEE8-0180C846B553}" name="SpaceSavingCount_gr_5" displayName="SpaceSavingCount_gr_5" ref="P11:R17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="P11:R17" xr:uid="{D488B3BC-68DC-4D3A-BEE8-0180C846B553}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D1A3C248-B9E5-4328-8612-B0C1211BC1E9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{B5136401-7FA9-4759-8862-06C10348D3A2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B0A7AD46-0856-4CEB-BD9E-60761BFC3477}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{D1A3C248-B9E5-4328-8612-B0C1211BC1E9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{B5136401-7FA9-4759-8862-06C10348D3A2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B0A7AD46-0856-4CEB-BD9E-60761BFC3477}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4972F5A1-E545-4534-BD02-C237313E63C7}" name="SpaceSavingCount_en_10" displayName="SpaceSavingCount_en_10" ref="D20:F31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D20:F31" xr:uid="{4972F5A1-E545-4534-BD02-C237313E63C7}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E36BC394-811B-436D-ABCF-AADE27D610BD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{870D647E-05E9-41F8-B468-C1BA0A44B6AF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{DBB5072F-5E76-4508-85BE-3C852ED4DD44}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4972F5A1-E545-4534-BD02-C237313E63C7}" name="SpaceSavingCount_en_10" displayName="SpaceSavingCount_en_10" ref="D20:H31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D20:H31" xr:uid="{4972F5A1-E545-4534-BD02-C237313E63C7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E36BC394-811B-436D-ABCF-AADE27D610BD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{870D647E-05E9-41F8-B468-C1BA0A44B6AF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DBB5072F-5E76-4508-85BE-3C852ED4DD44}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7B239F4E-C392-47B6-86BC-C933C12704A5}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{3984B1E7-15D5-45C1-8DAE-DF7078899636}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CD6EA3E5-3628-4784-B198-6420AB2BD0BB}" name="SpaceSavingCount_fr_10" displayName="SpaceSavingCount_fr_10" ref="I20:K31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="I20:K31" xr:uid="{CD6EA3E5-3628-4784-B198-6420AB2BD0BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CD6EA3E5-3628-4784-B198-6420AB2BD0BB}" name="SpaceSavingCount_fr_10" displayName="SpaceSavingCount_fr_10" ref="J20:L31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="J20:L31" xr:uid="{CD6EA3E5-3628-4784-B198-6420AB2BD0BB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{916F13AD-D58D-4FFC-830A-D1E723B0B5BF}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{58EC3303-201B-4781-992F-7037273CC1C8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
@@ -6372,8 +6407,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FB485169-0710-4D18-BF97-0CDF0D5191F8}" name="SpaceSavingCount_gr_10" displayName="SpaceSavingCount_gr_10" ref="N20:P31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="N20:P31" xr:uid="{FB485169-0710-4D18-BF97-0CDF0D5191F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FB485169-0710-4D18-BF97-0CDF0D5191F8}" name="SpaceSavingCount_gr_10" displayName="SpaceSavingCount_gr_10" ref="P20:R31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="P20:R31" xr:uid="{FB485169-0710-4D18-BF97-0CDF0D5191F8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{51C38E29-47D6-45D4-AFFA-564AAE5174A7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{1B035591-E508-43CA-A480-0406FDCAED1C}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="7"/>
@@ -6423,11 +6458,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{F7A80C61-636A-4283-9622-3E19E50EFF61}" name="CsurosCounter_en_331" displayName="CsurosCounter_en_331" ref="O3:S35" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="O3:S35" xr:uid="{F7A80C61-636A-4283-9622-3E19E50EFF61}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3BA634E5-D019-4185-81DF-245F3F5ED547}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{86A8D6A0-1791-4128-B3A6-1C4F1E40F5FF}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{756E65DB-E4A6-4E13-AF13-4BE8E83A9476}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{663DB0B8-C282-4464-88B7-09C59F440405}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{DCBDC526-E0E3-45BA-8A9D-72041A525F61}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{3BA634E5-D019-4185-81DF-245F3F5ED547}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{86A8D6A0-1791-4128-B3A6-1C4F1E40F5FF}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{756E65DB-E4A6-4E13-AF13-4BE8E83A9476}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{663DB0B8-C282-4464-88B7-09C59F440405}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{DCBDC526-E0E3-45BA-8A9D-72041A525F61}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6437,11 +6472,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{CA1D8664-55B4-43AB-A9EE-1B57C599EBC4}" name="CsurosCounter_en_432" displayName="CsurosCounter_en_432" ref="U3:Y35" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="U3:Y35" xr:uid="{CA1D8664-55B4-43AB-A9EE-1B57C599EBC4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4DDFFD57-DC85-49ED-BE59-CA643B14C113}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{BF570D77-7404-4D18-8C30-6E5CD1F2FBD1}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{DA76747D-41C6-444B-B084-8C3F16DF6DFD}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{2566AF22-D9A6-4BDF-8CA7-A0AD4A7BD7CD}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{1FF26196-E1AB-49B8-A1E8-60E527702521}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{4DDFFD57-DC85-49ED-BE59-CA643B14C113}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{BF570D77-7404-4D18-8C30-6E5CD1F2FBD1}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{DA76747D-41C6-444B-B084-8C3F16DF6DFD}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{2566AF22-D9A6-4BDF-8CA7-A0AD4A7BD7CD}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{1FF26196-E1AB-49B8-A1E8-60E527702521}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6451,11 +6486,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{20C5ADAD-C3C1-4519-A807-456A9E21A95D}" name="CsurosCounter_en_533" displayName="CsurosCounter_en_533" ref="AA3:AE35" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AA3:AE35" xr:uid="{20C5ADAD-C3C1-4519-A807-456A9E21A95D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{97EE9902-DFF9-4404-A614-88AC9076D5B3}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{9232218B-885E-41F6-99E2-A6E6B83393E8}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{BC413EFE-EDEF-4690-BAA2-C95D548E949A}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{3911ECDD-8B0A-4DD0-BD4A-CFD1D365D193}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{D7F0D232-F08C-4847-AB0E-3F9FB70C00C7}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{97EE9902-DFF9-4404-A614-88AC9076D5B3}" uniqueName="1" name="Coluna1" queryTableFieldId="1" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{9232218B-885E-41F6-99E2-A6E6B83393E8}" uniqueName="2" name="Coluna2" queryTableFieldId="2" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{BC413EFE-EDEF-4690-BAA2-C95D548E949A}" uniqueName="3" name="Coluna3" queryTableFieldId="3" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{3911ECDD-8B0A-4DD0-BD4A-CFD1D365D193}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{D7F0D232-F08C-4847-AB0E-3F9FB70C00C7}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6465,11 +6500,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{D8BB823F-AD40-4A9D-9763-3FF48493D49B}" name="CsurosCounter_en_6" displayName="CsurosCounter_en_6" ref="C38:G70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C38:G70" xr:uid="{D8BB823F-AD40-4A9D-9763-3FF48493D49B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23ACEAF7-FB56-4D62-97AC-D788E98FC794}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{44DBA515-DA2F-4EB7-B90C-C75CBE440B8F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{ED0DF4FD-2A8B-4DC0-BDB6-EFA033029F47}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{4D737FC8-FB9A-4AF6-94B8-ED6964F9A87D}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{4C1B2916-725E-4CC0-835D-EE9786633D84}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{23ACEAF7-FB56-4D62-97AC-D788E98FC794}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{44DBA515-DA2F-4EB7-B90C-C75CBE440B8F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{ED0DF4FD-2A8B-4DC0-BDB6-EFA033029F47}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{4D737FC8-FB9A-4AF6-94B8-ED6964F9A87D}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{4C1B2916-725E-4CC0-835D-EE9786633D84}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6479,11 +6514,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{8946717E-62E9-4F81-BF2A-3921CFACEA04}" name="CsurosCounter_en_7" displayName="CsurosCounter_en_7" ref="I38:M70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I38:M70" xr:uid="{8946717E-62E9-4F81-BF2A-3921CFACEA04}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87BEAA2C-17DB-4FB2-9332-E95D94DD6F11}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{B56DBE58-6429-4B17-AFD1-4602DD6BF12D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{02D48908-EA03-49B5-B83C-22209105CB08}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{675B8BA0-C3FD-4C82-B842-48333CC87C32}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{439FD76C-571E-4812-BBB1-3DBCFAFAAE76}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{87BEAA2C-17DB-4FB2-9332-E95D94DD6F11}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{B56DBE58-6429-4B17-AFD1-4602DD6BF12D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{02D48908-EA03-49B5-B83C-22209105CB08}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{675B8BA0-C3FD-4C82-B842-48333CC87C32}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{439FD76C-571E-4812-BBB1-3DBCFAFAAE76}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6493,11 +6528,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{A011CB02-2FAB-4BBC-8741-5C791A9027A9}" name="CsurosCounter_en_8" displayName="CsurosCounter_en_8" ref="O38:S70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="O38:S70" xr:uid="{A011CB02-2FAB-4BBC-8741-5C791A9027A9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{153E06FB-96B6-420C-97BB-7F429C501122}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{8E1215A5-0949-42B7-8291-96E7E4C1AB68}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{D6EF2A66-9683-4F02-8007-0375A9B5EF36}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{40938D37-0591-405F-BD07-3F37FF578B86}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{383FCF05-B9AA-4FED-8CDF-FD9C1A82BEDE}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{153E06FB-96B6-420C-97BB-7F429C501122}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{8E1215A5-0949-42B7-8291-96E7E4C1AB68}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{D6EF2A66-9683-4F02-8007-0375A9B5EF36}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{40938D37-0591-405F-BD07-3F37FF578B86}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{383FCF05-B9AA-4FED-8CDF-FD9C1A82BEDE}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6507,11 +6542,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{57701094-2F40-4485-912F-BBEDC820E3F6}" name="CsurosCounter_en_939" displayName="CsurosCounter_en_939" ref="U38:Y70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="U38:Y70" xr:uid="{57701094-2F40-4485-912F-BBEDC820E3F6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85E04AE8-1637-4ADE-821A-FEE553A39CEE}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{1983EFDD-F965-41B2-9E5B-004D2C5F970A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{C4F843F1-D2D1-4065-89FB-D00D250AB4F9}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{8A78C9F8-A2B6-417D-AE57-B28790BB7067}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{44E27028-A8D4-40E6-ACFC-DA66437A83DD}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{85E04AE8-1637-4ADE-821A-FEE553A39CEE}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{1983EFDD-F965-41B2-9E5B-004D2C5F970A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{C4F843F1-D2D1-4065-89FB-D00D250AB4F9}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{8A78C9F8-A2B6-417D-AE57-B28790BB7067}" uniqueName="4" name="Coluna4" queryTableFieldId="4" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{44E27028-A8D4-40E6-ACFC-DA66437A83DD}" uniqueName="5" name="Coluna5" queryTableFieldId="5" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6816,8 +6851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B515B44F-D329-4BB0-B8C9-DCDA2D8C01A7}">
   <dimension ref="B3:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F68" workbookViewId="0">
-      <selection activeCell="T103" sqref="T103"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9680,29 +9715,25 @@
         <f>AVERAGE(S5:S34)</f>
         <v>-3800.3866666666668</v>
       </c>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5" t="s">
+      <c r="W35" t="s">
         <v>1005</v>
       </c>
-      <c r="X35" s="5">
+      <c r="X35">
         <f>AVERAGE(X5:X34)</f>
         <v>76.706879354460142</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35">
         <f>AVERAGE(Y5:Y34)</f>
         <v>-3758.1299999999992</v>
       </c>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" t="s">
         <v>1005</v>
       </c>
-      <c r="AD35" s="5">
+      <c r="AD35">
         <f>AVERAGE(AD5:AD34)</f>
         <v>72.056956393127791</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AE35">
         <f>AVERAGE(AE5:AE34)</f>
         <v>-3685.9599999999996</v>
       </c>
@@ -12487,68 +12518,58 @@
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5" t="s">
+      <c r="E70" t="s">
         <v>1005</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70">
         <f>AVERAGE(F40:F69)</f>
         <v>66.901997376525813</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70">
         <f>AVERAGE(G40:G69)</f>
         <v>-3567.413333333333</v>
       </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5" t="s">
+      <c r="K70" t="s">
         <v>1005</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70">
         <f>AVERAGE(L40:L69)</f>
         <v>60.502609375343098</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70">
         <f>AVERAGE(M40:M69)</f>
         <v>-3377.63</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5" t="s">
+      <c r="Q70" t="s">
         <v>1005</v>
       </c>
-      <c r="R70" s="5">
+      <c r="R70">
         <f>AVERAGE(R40:R69)</f>
         <v>53.059248674501262</v>
       </c>
-      <c r="S70" s="5">
+      <c r="S70">
         <f>AVERAGE(S40:S69)</f>
         <v>-3086.1833333333343</v>
       </c>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5" t="s">
+      <c r="W70" t="s">
         <v>1005</v>
       </c>
-      <c r="X70" s="5">
+      <c r="X70">
         <f>AVERAGE(X40:X69)</f>
         <v>43.090359719346232</v>
       </c>
-      <c r="Y70" s="5">
+      <c r="Y70">
         <f>AVERAGE(Y40:Y69)</f>
         <v>-2663.7499999999995</v>
       </c>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5" t="s">
+      <c r="AC70" t="s">
         <v>1005</v>
       </c>
-      <c r="AD70" s="5">
+      <c r="AD70">
         <f>AVERAGE(AD40:AD69)</f>
         <v>30.927579010686191</v>
       </c>
-      <c r="AE70" s="5">
+      <c r="AE70">
         <f>AVERAGE(AE40:AE69)</f>
         <v>-2101.8366666666666</v>
       </c>
@@ -14790,55 +14811,47 @@
       </c>
     </row>
     <row r="105" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5" t="s">
+      <c r="E105" t="s">
         <v>1005</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105">
         <f>AVERAGE(F75:F104)</f>
         <v>18.092896851339592</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105">
         <f>AVERAGE(G75:G104)</f>
         <v>-1425.7900000000002</v>
       </c>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5" t="s">
+      <c r="K105" t="s">
         <v>1005</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105">
         <f>AVERAGE(L75:L104)</f>
         <v>8.4825657086492381</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105">
         <f>AVERAGE(M75:M104)</f>
         <v>-773.49333333333357</v>
       </c>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5" t="s">
+      <c r="Q105" t="s">
         <v>1005</v>
       </c>
-      <c r="R105" s="5">
+      <c r="R105">
         <f>AVERAGE(R75:R104)</f>
         <v>1.6079112656904471</v>
       </c>
-      <c r="S105" s="5">
+      <c r="S105">
         <f>AVERAGE(S75:S104)</f>
         <v>-187.93333333333339</v>
       </c>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-      <c r="W105" s="5" t="s">
+      <c r="W105" t="s">
         <v>1005</v>
       </c>
-      <c r="X105" s="5">
+      <c r="X105">
         <f>AVERAGE(X75:X104)</f>
         <v>0</v>
       </c>
-      <c r="Y105" s="5">
+      <c r="Y105">
         <f>AVERAGE(Y75:Y104)</f>
         <v>0</v>
       </c>
@@ -14869,8 +14882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D4CCA7-7FA5-4B2B-A05B-CF2C48F3E2F6}">
   <dimension ref="D3:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15970,10 +15983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB479C87-AFE2-4F7E-9799-C99DDAEE686B}">
-  <dimension ref="B3:P31"/>
+  <dimension ref="B3:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15981,22 +15994,24 @@
     <col min="1" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>140</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>141</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>158</v>
       </c>
@@ -16009,26 +16024,32 @@
       <c r="F4" t="s">
         <v>145</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J4" t="s">
         <v>143</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>144</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>145</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>143</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>144</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -16038,26 +16059,32 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1003</v>
       </c>
       <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -16067,26 +16094,34 @@
       <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G6">
+        <f xml:space="preserve"> ABS(SpaceSavingCount_en_3__2[[#This Row],[Column2]]-ExactCount!E9)/ExactCount!E9*100</f>
+        <v>356.42087821043907</v>
+      </c>
+      <c r="H6">
+        <f>SpaceSavingCount_en_3__2[[#This Row],[Column2]]-ExactCount!E9</f>
+        <v>30114</v>
+      </c>
+      <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>150</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>151</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>154</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -16096,26 +16131,34 @@
       <c r="F7" t="s">
         <v>147</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7">
+        <f>ABS(SpaceSavingCount_en_3__2[[#This Row],[Column2]]-ExactCount!E25)/ExactCount!E25*100</f>
+        <v>2875.5401234567903</v>
+      </c>
+      <c r="H7">
+        <f>SpaceSavingCount_en_3__2[[#This Row],[Column2]]-ExactCount!E25</f>
+        <v>37267</v>
+      </c>
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>150</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>151</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>156</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -16125,26 +16168,34 @@
       <c r="F8" t="s">
         <v>149</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8">
+        <f xml:space="preserve"> ABS(SpaceSavingCount_en_3__2[[#This Row],[Column2]]-ExactCount!E5)/ExactCount!E5*100</f>
+        <v>181.47445255474452</v>
+      </c>
+      <c r="H8">
+        <f>SpaceSavingCount_en_3__2[[#This Row],[Column2]]-ExactCount!E5</f>
+        <v>24862</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>152</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>153</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>19</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>156</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>175</v>
       </c>
@@ -16157,26 +16208,32 @@
       <c r="F11" t="s">
         <v>145</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J11" t="s">
         <v>143</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>144</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>145</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>143</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>144</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>0</v>
       </c>
@@ -16186,26 +16243,32 @@
       <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1003</v>
       </c>
       <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>5</v>
       </c>
@@ -16215,26 +16278,34 @@
       <c r="F13" t="s">
         <v>160</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G13">
+        <f>ABS(E13-ExactCount!E6)/ExactCount!E6*100</f>
+        <v>112.79198087180431</v>
+      </c>
+      <c r="H13">
+        <f>SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E6</f>
+        <v>12265</v>
+      </c>
+      <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>165</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>166</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>3</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>169</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>3</v>
       </c>
@@ -16244,26 +16315,34 @@
       <c r="F14" t="s">
         <v>162</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G14">
+        <f>ABS(SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E5)/ExactCount!E5*100</f>
+        <v>68.890510948905117</v>
+      </c>
+      <c r="H14">
+        <f>SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E5</f>
+        <v>9438</v>
+      </c>
+      <c r="J14" t="s">
         <v>45</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>165</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>166</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>9</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>171</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>11</v>
       </c>
@@ -16273,26 +16352,34 @@
       <c r="F15" t="s">
         <v>164</v>
       </c>
-      <c r="I15" t="s">
+      <c r="G15">
+        <f>ABS(SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E9)/ExactCount!E9*100</f>
+        <v>173.84305835010062</v>
+      </c>
+      <c r="H15">
+        <f>SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E9</f>
+        <v>14688</v>
+      </c>
+      <c r="J15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>165</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>173</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>27</v>
       </c>
@@ -16302,26 +16389,34 @@
       <c r="F16" t="s">
         <v>164</v>
       </c>
-      <c r="I16" t="s">
+      <c r="G16">
+        <f>ABS(SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E17)/ExactCount!E17*100</f>
+        <v>549.00420757363258</v>
+      </c>
+      <c r="H16">
+        <f>SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E17</f>
+        <v>19572</v>
+      </c>
+      <c r="J16" t="s">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>165</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>166</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>41</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>173</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>33</v>
       </c>
@@ -16331,26 +16426,34 @@
       <c r="F17" t="s">
         <v>164</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G17">
+        <f>ABS(SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E20)/ExactCount!E20*100</f>
+        <v>858.05383022774322</v>
+      </c>
+      <c r="H17">
+        <f>SpaceSavingCount_en_5[[#This Row],[Column2]]-ExactCount!E20</f>
+        <v>20722</v>
+      </c>
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>167</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>168</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>29</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>173</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>207</v>
       </c>
@@ -16363,26 +16466,32 @@
       <c r="F20" t="s">
         <v>145</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J20" t="s">
         <v>143</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>144</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>145</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>143</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>144</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>0</v>
       </c>
@@ -16392,26 +16501,33 @@
       <c r="F21" t="s">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>0</v>
+      <c r="G21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1003</v>
       </c>
       <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>2</v>
       </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
         <v>1</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>3</v>
       </c>
@@ -16421,26 +16537,35 @@
       <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="G22">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E5)/ExactCount!E5*100</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E5</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>187</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>60</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>3</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>196</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>5</v>
       </c>
@@ -16450,26 +16575,35 @@
       <c r="F23" t="s">
         <v>178</v>
       </c>
-      <c r="I23" t="s">
+      <c r="G23">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E6)/ExactCount!E6*100</f>
+        <v>4.3958065109435349</v>
+      </c>
+      <c r="H23">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E6</f>
+        <v>478</v>
+      </c>
+      <c r="J23" t="s">
         <v>7</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>188</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>189</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>17</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>197</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
         <v>7</v>
       </c>
@@ -16479,26 +16613,35 @@
       <c r="F24" t="s">
         <v>180</v>
       </c>
-      <c r="I24" t="s">
+      <c r="G24">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E7)/ExactCount!E7*100</f>
+        <v>11.067580803134183</v>
+      </c>
+      <c r="H24">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E7</f>
+        <v>1130</v>
+      </c>
+      <c r="J24" t="s">
         <v>9</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>190</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>191</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>5</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>199</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -16508,26 +16651,35 @@
       <c r="F25" t="s">
         <v>182</v>
       </c>
-      <c r="I25" t="s">
+      <c r="G25">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E8)/ExactCount!E8*100</f>
+        <v>27.006726457399104</v>
+      </c>
+      <c r="H25">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E8</f>
+        <v>2409</v>
+      </c>
+      <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>192</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>193</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>19</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>201</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
         <v>21</v>
       </c>
@@ -16537,26 +16689,35 @@
       <c r="F26" t="s">
         <v>184</v>
       </c>
-      <c r="I26" t="s">
+      <c r="G26">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E14)/ExactCount!E14*100</f>
+        <v>113.01241068070705</v>
+      </c>
+      <c r="H26">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E14</f>
+        <v>6010</v>
+      </c>
+      <c r="J26" t="s">
         <v>45</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>192</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>193</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>9</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>203</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -16566,26 +16727,35 @@
       <c r="F27" t="s">
         <v>184</v>
       </c>
-      <c r="I27" t="s">
+      <c r="G27">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E21)/ExactCount!E21*100</f>
+        <v>398.37219533655963</v>
+      </c>
+      <c r="H27">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E21</f>
+        <v>9055</v>
+      </c>
+      <c r="J27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>192</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>193</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>13</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>203</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
         <v>19</v>
       </c>
@@ -16595,26 +16765,35 @@
       <c r="F28" t="s">
         <v>184</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G28">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E13)/ExactCount!E13*100</f>
+        <v>83.419689119170982</v>
+      </c>
+      <c r="H28">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E13</f>
+        <v>5152</v>
+      </c>
+      <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>192</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>193</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>7</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>203</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
       <c r="D29" t="s">
         <v>41</v>
       </c>
@@ -16624,26 +16803,35 @@
       <c r="F29" t="s">
         <v>184</v>
       </c>
-      <c r="I29" t="s">
+      <c r="G29">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E24)/ExactCount!E24*100</f>
+        <v>633.67875647668393</v>
+      </c>
+      <c r="H29">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E24</f>
+        <v>9784</v>
+      </c>
+      <c r="J29" t="s">
         <v>5</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>192</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>193</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>45</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>205</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
       <c r="D30" t="s">
         <v>17</v>
       </c>
@@ -16653,26 +16841,35 @@
       <c r="F30" t="s">
         <v>184</v>
       </c>
-      <c r="I30" t="s">
+      <c r="G30">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E12)/ExactCount!E12*100</f>
+        <v>57.311484516039435</v>
+      </c>
+      <c r="H30">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E12</f>
+        <v>4127</v>
+      </c>
+      <c r="J30" t="s">
         <v>19</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>194</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>195</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>21</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>205</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
       <c r="D31" t="s">
         <v>33</v>
       </c>
@@ -16682,26 +16879,50 @@
       <c r="F31" t="s">
         <v>186</v>
       </c>
-      <c r="I31" t="s">
+      <c r="G31">
+        <f>ABS(SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E20)/ExactCount!E20*100</f>
+        <v>369.02691511387167</v>
+      </c>
+      <c r="H31">
+        <f>SpaceSavingCount_en_10[[#This Row],[Column2]]-ExactCount!E20</f>
+        <v>8912</v>
+      </c>
+      <c r="J31" t="s">
         <v>41</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>194</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>195</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>41</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>205</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="9">
     <tablePart r:id="rId1"/>
@@ -16722,7 +16943,7 @@
   <dimension ref="D3:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17796,8 +18017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF3334A-DF6B-4018-A16C-367C3130D01A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
